--- a/Chain.of.Heroes/Tools/Data/SwordWoman.xlsx
+++ b/Chain.of.Heroes/Tools/Data/SwordWoman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7AC0F5-AF0D-4F21-AA6D-11336D0268FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA52080-9ACD-4AE1-A8DC-CE8824387EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,6 +691,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -976,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2665,7 +2668,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>10010028</v>
       </c>
@@ -2719,108 +2722,108 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18">
+      <c r="A34" s="21">
         <v>10010029</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="21">
         <v>30</v>
       </c>
-      <c r="E34" s="19">
-        <v>40</v>
-      </c>
-      <c r="F34" s="19">
-        <v>0</v>
-      </c>
-      <c r="G34" s="19">
+      <c r="E34" s="21">
+        <v>40</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
         <v>2110</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="21">
         <v>566</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="21">
         <v>396</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="21">
         <v>259</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="21">
         <v>2029</v>
       </c>
-      <c r="L34" s="19">
-        <v>15</v>
-      </c>
-      <c r="M34" s="19">
-        <v>1.3</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="O34" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P34" s="19" t="s">
+      <c r="L34" s="21">
+        <v>15</v>
+      </c>
+      <c r="M34" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="18">
+        <v>10010030</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="19">
+        <v>31</v>
+      </c>
+      <c r="E35" s="19">
+        <v>40</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0</v>
+      </c>
+      <c r="G35" s="19">
+        <v>2530</v>
+      </c>
+      <c r="H35" s="19">
+        <v>622</v>
+      </c>
+      <c r="I35" s="19">
+        <v>435</v>
+      </c>
+      <c r="J35" s="19">
+        <v>284</v>
+      </c>
+      <c r="K35" s="19">
+        <v>2130</v>
+      </c>
+      <c r="L35" s="19">
+        <v>15</v>
+      </c>
+      <c r="M35" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="Q34" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
-        <v>10010030</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="17">
-        <v>31</v>
-      </c>
-      <c r="E35" s="17">
-        <v>40</v>
-      </c>
-      <c r="F35" s="17">
-        <v>0</v>
-      </c>
-      <c r="G35" s="17">
-        <v>2530</v>
-      </c>
-      <c r="H35" s="17">
-        <v>622</v>
-      </c>
-      <c r="I35" s="17">
-        <v>435</v>
-      </c>
-      <c r="J35" s="17">
-        <v>284</v>
-      </c>
-      <c r="K35" s="17">
-        <v>2130</v>
-      </c>
-      <c r="L35" s="17">
-        <v>15</v>
-      </c>
-      <c r="M35" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="P35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q35" s="17" t="s">
+      <c r="Q35" s="20" t="s">
         <v>83</v>
       </c>
     </row>
